--- a/src/main/resources/excel/monster/monsterDrop.xlsx
+++ b/src/main/resources/excel/monster/monsterDrop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3821C8-ED6A-417D-9E10-4EB3CA99C58A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C0B385-A9EF-4F96-A4CA-94E89D2C253C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-192" yWindow="3480" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2964" yWindow="3084" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -376,7 +376,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -417,7 +417,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -437,7 +437,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -457,7 +457,7 @@
         <v>101</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -477,7 +477,7 @@
         <v>102</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -497,7 +497,7 @@
         <v>103</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -517,7 +517,7 @@
         <v>104</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>1</v>

--- a/src/main/resources/excel/monster/monsterDrop.xlsx
+++ b/src/main/resources/excel/monster/monsterDrop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C0B385-A9EF-4F96-A4CA-94E89D2C253C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED4B08F-A43D-4D24-A74B-8AD86F4F6BED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2964" yWindow="3084" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8976" yWindow="3396" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -373,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -526,6 +526,46 @@
         <v>0.1</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/excel/monster/monsterDrop.xlsx
+++ b/src/main/resources/excel/monster/monsterDrop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED4B08F-A43D-4D24-A74B-8AD86F4F6BED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520C1EC1-4680-4D9B-814F-212D01EDE685}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8976" yWindow="3396" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10152" yWindow="3528" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,15 +39,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>minNumber</t>
+    <t>dropProbability</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maxNumber</t>
+    <t>minQuantity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dropProbability</t>
+    <t>maxQuantity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,7 +376,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -397,13 +397,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">

--- a/src/main/resources/excel/monster/monsterDrop.xlsx
+++ b/src/main/resources/excel/monster/monsterDrop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520C1EC1-4680-4D9B-814F-212D01EDE685}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B79BE7D-DBFE-4CC9-836F-FA9DA770423E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10152" yWindow="3528" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="228" yWindow="852" windowWidth="14832" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -373,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -531,7 +531,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -540,7 +540,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>0.5</v>
@@ -551,18 +551,98 @@
         <v>8</v>
       </c>
       <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>101</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>102</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>3</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>5</v>
       </c>
-      <c r="F9">
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
         <v>0.5</v>
       </c>
     </row>
